--- a/FGDOS_freq_registers.xlsx
+++ b/FGDOS_freq_registers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUDelft\Thesis\P. Arduino Workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TUDelft\Thesis\P. Code\P. Arduino Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926AD67B-7B6A-4501-A668-621649532F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4324E2E0-91E1-47AD-84D4-CF264C178CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2580" windowWidth="21600" windowHeight="11385" xr2:uid="{A7205AAE-1D2B-48B7-94AE-5E9886583A6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7205AAE-1D2B-48B7-94AE-5E9886583A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="FGD_03F" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Target</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Actual trigger at</t>
+  </si>
+  <si>
+    <t>Actual frequency range</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1012,9 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
@@ -1021,6 +1027,9 @@
         <f>C29*B26</f>
         <v>132804.87060546875</v>
       </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
@@ -1032,6 +1041,9 @@
       <c r="D30">
         <f>C30*B26</f>
         <v>187500</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
